--- a/DOC/基本設計/社内管理_⑤稼働管理.xlsx
+++ b/DOC/基本設計/社内管理_⑤稼働管理.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\社内管理システム\基本設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAD196B-B3BF-4BF2-90A1-73DA0FE5AC65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CD72F0-486F-4A71-A47B-432EFCBCE92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="390" windowWidth="23805" windowHeight="15210" tabRatio="833" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="基本機能" sheetId="5" r:id="rId1"/>
-    <sheet name="詳細" sheetId="7" r:id="rId2"/>
+    <sheet name="履歴一覧" sheetId="8" r:id="rId1"/>
+    <sheet name="基本機能" sheetId="5" r:id="rId2"/>
+    <sheet name="詳細" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>機能名称：</t>
     <rPh sb="0" eb="2">
@@ -228,12 +229,77 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>　　社内管理システム_給料明細</t>
+    <rPh sb="11" eb="13">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>メイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能追加</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>孫</t>
+    <rPh sb="0" eb="1">
+      <t>ソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,16 +324,38 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -394,13 +482,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -452,6 +553,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -467,1175 +589,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="323850" y="762000"/>
-          <a:ext cx="5238750" cy="4010025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　　　　　　　　　　　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2020</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>年０４月</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　社員名前　　稼働時間　　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　郭 煥光　　　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>160h</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　　　交通費変更ありか</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　起点：　　　　　　　　　　　　交通機関：　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　終点：　　　　　　　　　　　　定期券（月）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　中間点</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　　　　　　　　　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>交通機関：　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="左矢印 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="571500" y="828675"/>
-          <a:ext cx="285750" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="933450" y="809625"/>
-          <a:ext cx="466725" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>前月</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4781550" y="819150"/>
-          <a:ext cx="466725" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>次月</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="右矢印 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5314950" y="876300"/>
-          <a:ext cx="247650" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE45F1C-6FA3-49BC-BF98-9CC2B5EAD3F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1295401" y="2819400"/>
-          <a:ext cx="857250" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>西川口駅</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7176430E-9943-403D-84BD-BF3134FC65AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685801" y="2495550"/>
-          <a:ext cx="190500" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FEE9B43-582F-402C-A067-8575547C5F47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3810001" y="2828925"/>
-          <a:ext cx="857250" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>JR</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA6574D-FABE-44F6-B2E9-C29AE13A3285}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1304926" y="3143250"/>
-          <a:ext cx="857250" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>品川駅</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B7A44E-1DB5-414C-91F1-3B5F2E2289A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3810001" y="3133725"/>
-          <a:ext cx="857250" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>15000</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>円</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E570D9E5-188B-48B0-884D-EC66843BC591}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1314451" y="3524250"/>
-          <a:ext cx="857250" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>○○駅</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA0F2C3-3E90-45A4-B1F3-191544D1A737}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3810001" y="3552825"/>
-          <a:ext cx="857250" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>東武</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99E72B7-5AE6-4D87-8746-F40E4C4D544A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4629150" y="4133850"/>
-          <a:ext cx="466725" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>提出</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1900,11 +853,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0D9C1C-9CC0-4FF9-9838-473A05A36C7A}">
+  <dimension ref="B2:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="63.875" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="20">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="21">
+        <v>43932</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="23">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2901,11 +1994,10 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH25"/>
   <sheetViews>
